--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="76" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{651DF025-4518-480B-8FEC-0006A2C24B08}"/>
+  <xr:revisionPtr revIDLastSave="89" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD61CF63-E861-4DCB-9E01-BDACE50AFCCB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
   <si>
     <t>clés</t>
   </si>
@@ -141,6 +141,36 @@
   </si>
   <si>
     <t>Divers</t>
+  </si>
+  <si>
+    <t>Settings</t>
+  </si>
+  <si>
+    <t>Paramètres</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>French</t>
+  </si>
+  <si>
+    <t>Langue</t>
+  </si>
+  <si>
+    <t>Anglais</t>
+  </si>
+  <si>
+    <t>Français</t>
+  </si>
+  <si>
+    <t>Apply</t>
+  </si>
+  <si>
+    <t>Appliquer</t>
   </si>
 </sst>
 </file>
@@ -492,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -664,6 +694,46 @@
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BD61CF63-E861-4DCB-9E01-BDACE50AFCCB}"/>
+  <xr:revisionPtr revIDLastSave="96" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821DF72D-8ADD-4667-B0A9-D3F2400C4F3D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
+    <workbookView xWindow="-23148" yWindow="420" windowWidth="23256" windowHeight="12456" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
   <si>
     <t>clés</t>
   </si>
@@ -171,6 +171,30 @@
   </si>
   <si>
     <t>Appliquer</t>
+  </si>
+  <si>
+    <t>Load</t>
+  </si>
+  <si>
+    <t>Charger</t>
+  </si>
+  <si>
+    <t>Load a saved game</t>
+  </si>
+  <si>
+    <t>Charger une sauvegarde</t>
+  </si>
+  <si>
+    <t>Auto save</t>
+  </si>
+  <si>
+    <t>Sauvegarde auto</t>
+  </si>
+  <si>
+    <t>Last save</t>
+  </si>
+  <si>
+    <t>Dernière sauvegarde</t>
   </si>
 </sst>
 </file>
@@ -522,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A29" sqref="A29:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -734,6 +758,38 @@
         <v>44</v>
       </c>
     </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" t="s">
+        <v>52</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="96" documentId="8_{C9324880-64AB-4CC9-AFDC-C8C6971342A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{821DF72D-8ADD-4667-B0A9-D3F2400C4F3D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23162450-A975-49AB-85D8-72823DE7F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="420" windowWidth="23256" windowHeight="12456" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
   <si>
     <t>clés</t>
   </si>
@@ -195,6 +195,30 @@
   </si>
   <si>
     <t>Dernière sauvegarde</t>
+  </si>
+  <si>
+    <t>Save ?</t>
+  </si>
+  <si>
+    <t>Save game before exiting ?</t>
+  </si>
+  <si>
+    <t>Sauvegarder ?</t>
+  </si>
+  <si>
+    <t>Sauvergader avant de sortir ?</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Non</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Oui</t>
   </si>
 </sst>
 </file>
@@ -546,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:B29"/>
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +814,38 @@
         <v>52</v>
       </c>
     </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>53</v>
+      </c>
+      <c r="B30" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>54</v>
+      </c>
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>59</v>
+      </c>
+      <c r="B32" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23162450-A975-49AB-85D8-72823DE7F765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3B33CE-59E0-473E-9AB7-80D9D93EDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -573,7 +573,7 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD3B33CE-59E0-473E-9AB7-80D9D93EDB4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D99894-144E-4AC1-847D-6A12CE5F70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
   <si>
     <t>clés</t>
   </si>
@@ -219,6 +219,18 @@
   </si>
   <si>
     <t>Oui</t>
+  </si>
+  <si>
+    <t>Trading</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Commerce</t>
+  </si>
+  <si>
+    <t>Acheter</t>
   </si>
 </sst>
 </file>
@@ -570,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -846,6 +858,22 @@
         <v>58</v>
       </c>
     </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="B35" t="s">
+        <v>64</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D99894-144E-4AC1-847D-6A12CE5F70C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A973D-C061-4FB0-8695-9191AAF0F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
   <si>
     <t>clés</t>
   </si>
@@ -98,12 +98,6 @@
     <t>Au revoir.</t>
   </si>
   <si>
-    <t>Weigth : %.1f</t>
-  </si>
-  <si>
-    <t>Poids : %.1f</t>
-  </si>
-  <si>
     <t>Transfert</t>
   </si>
   <si>
@@ -231,6 +225,18 @@
   </si>
   <si>
     <t>Acheter</t>
+  </si>
+  <si>
+    <t>Unit price : %.2f</t>
+  </si>
+  <si>
+    <t>Weigth : %.2f</t>
+  </si>
+  <si>
+    <t>Prix unitaire : %.2f</t>
+  </si>
+  <si>
+    <t>Poids : %.2f</t>
   </si>
 </sst>
 </file>
@@ -582,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,66 +690,66 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,122 +762,130 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B30" t="s">
         <v>53</v>
-      </c>
-      <c r="B30" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>59</v>
+      </c>
+      <c r="B34" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>60</v>
+      </c>
+      <c r="B35" t="s">
         <v>62</v>
       </c>
-      <c r="B35" t="s">
-        <v>64</v>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246A973D-C061-4FB0-8695-9191AAF0F2D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC7458-9506-4F09-8623-66655B458F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
   <si>
     <t>clés</t>
   </si>
@@ -237,6 +237,12 @@
   </si>
   <si>
     <t>Poids : %.2f</t>
+  </si>
+  <si>
+    <t>Inventory : %d credits</t>
+  </si>
+  <si>
+    <t>Inventaire : %d crédits</t>
   </si>
 </sst>
 </file>
@@ -588,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -888,6 +894,14 @@
         <v>65</v>
       </c>
     </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56BC7458-9506-4F09-8623-66655B458F40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6560B-878D-44C7-BEEA-8BB9DF6598D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>clés</t>
   </si>
@@ -243,6 +243,21 @@
   </si>
   <si>
     <t>Inventaire : %d crédits</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>You don't have enough credits</t>
+  </si>
+  <si>
+    <t>Vous n'avez pas assez de crédits</t>
+  </si>
+  <si>
+    <t>%d (%d credits)</t>
+  </si>
+  <si>
+    <t>%d (%d crédits)</t>
   </si>
 </sst>
 </file>
@@ -594,10 +609,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -902,6 +917,30 @@
         <v>68</v>
       </c>
     </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>73</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BB6560B-878D-44C7-BEEA-8BB9DF6598D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DD4CD-AF70-4E8A-B7E9-1B979674A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
   <si>
     <t>clés</t>
   </si>
@@ -200,9 +200,6 @@
     <t>Sauvegarder ?</t>
   </si>
   <si>
-    <t>Sauvergader avant de sortir ?</t>
-  </si>
-  <si>
     <t>No</t>
   </si>
   <si>
@@ -258,6 +255,33 @@
   </si>
   <si>
     <t>%d (%d crédits)</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Enregistrer</t>
+  </si>
+  <si>
+    <t>Sauvegarder avant de sortir ?</t>
+  </si>
+  <si>
+    <t>Save game</t>
+  </si>
+  <si>
+    <t>Sauvegarder</t>
+  </si>
+  <si>
+    <t>my saved game</t>
+  </si>
+  <si>
+    <t>ma sauvegarde</t>
+  </si>
+  <si>
+    <t>Ecraser la sauvegarde existante ?</t>
+  </si>
+  <si>
+    <t>Overwrite existing save?</t>
   </si>
 </sst>
 </file>
@@ -609,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -711,10 +735,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -866,79 +890,111 @@
         <v>52</v>
       </c>
       <c r="B31" t="s">
-        <v>54</v>
+        <v>75</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
-      </c>
-      <c r="B32" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B33" t="s">
         <v>55</v>
-      </c>
-      <c r="B33" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B34" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" t="s">
         <v>67</v>
-      </c>
-      <c r="B37" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" t="s">
         <v>70</v>
-      </c>
-      <c r="B39" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B40" t="s">
         <v>72</v>
       </c>
-      <c r="B40" t="s">
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>73</v>
+      </c>
+      <c r="B42" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{097DD4CD-AF70-4E8A-B7E9-1B979674A543}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCDD8C-17AD-4A28-8D37-69568BB5376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -179,12 +179,6 @@
     <t>Charger une sauvegarde</t>
   </si>
   <si>
-    <t>Auto save</t>
-  </si>
-  <si>
-    <t>Sauvegarde auto</t>
-  </si>
-  <si>
     <t>Last save</t>
   </si>
   <si>
@@ -282,6 +276,12 @@
   </si>
   <si>
     <t>Overwrite existing save?</t>
+  </si>
+  <si>
+    <t>[Auto save]</t>
+  </si>
+  <si>
+    <t>[Sauvegarde auto]</t>
   </si>
 </sst>
 </file>
@@ -636,7 +636,7 @@
   <dimension ref="A1:B44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -735,10 +735,10 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" t="s">
         <v>63</v>
-      </c>
-      <c r="B12" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -863,138 +863,138 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="B28" t="s">
-        <v>48</v>
+        <v>81</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s">
         <v>51</v>
-      </c>
-      <c r="B30" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B31" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>56</v>
+      </c>
+      <c r="B34" t="s">
         <v>58</v>
-      </c>
-      <c r="B34" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B35" t="s">
         <v>59</v>
-      </c>
-      <c r="B35" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>60</v>
+      </c>
+      <c r="B36" t="s">
         <v>62</v>
-      </c>
-      <c r="B36" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B39" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B42" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6BCDD8C-17AD-4A28-8D37-69568BB5376C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971B729-86A7-4859-9D7A-9B133B1615A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
   <si>
     <t>clés</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>[Sauvegarde auto]</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Supprimer</t>
+  </si>
+  <si>
+    <t>Delete ?</t>
+  </si>
+  <si>
+    <t>Supprimer ?</t>
+  </si>
+  <si>
+    <t>Delete saved game ' %s' ?</t>
+  </si>
+  <si>
+    <t>Supprimer la sauvegarde '%s' ?</t>
   </si>
 </sst>
 </file>
@@ -633,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B44"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -997,6 +1015,30 @@
         <v>78</v>
       </c>
     </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>84</v>
+      </c>
+      <c r="B46" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6971B729-86A7-4859-9D7A-9B133B1615A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE0D61-D2C3-48BA-8060-9DAB41CE5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
   <si>
     <t>clés</t>
   </si>
@@ -300,6 +300,12 @@
   </si>
   <si>
     <t>Supprimer la sauvegarde '%s' ?</t>
+  </si>
+  <si>
+    <t>Inventory : %d credit</t>
+  </si>
+  <si>
+    <t>Inventaire : %d crédit</t>
   </si>
 </sst>
 </file>
@@ -651,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B47"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -961,81 +967,89 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>66</v>
+        <v>88</v>
       </c>
       <c r="B38" t="s">
-        <v>66</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B39" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>86</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>87</v>
       </c>
     </row>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AE0D61-D2C3-48BA-8060-9DAB41CE5B57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC2532-D3E8-461C-AD80-37E4AFE605D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
   <si>
     <t>clés</t>
   </si>
@@ -92,12 +92,6 @@
     <t>Salut !</t>
   </si>
   <si>
-    <t>Bye.</t>
-  </si>
-  <si>
-    <t>Au revoir.</t>
-  </si>
-  <si>
     <t>Transfert</t>
   </si>
   <si>
@@ -306,6 +300,63 @@
   </si>
   <si>
     <t>Inventaire : %d crédit</t>
+  </si>
+  <si>
+    <t>Enchanté de vous rencontrer</t>
+  </si>
+  <si>
+    <t>Nice to meet you</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>Merci</t>
+  </si>
+  <si>
+    <t>Salut</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Bye</t>
+  </si>
+  <si>
+    <t>Au revoir</t>
+  </si>
+  <si>
+    <t>Laissez tomber</t>
+  </si>
+  <si>
+    <t>Nevermind</t>
+  </si>
+  <si>
+    <t>Ok, au revoir</t>
+  </si>
+  <si>
+    <t>Ok, bye</t>
+  </si>
+  <si>
+    <t>Autre chose…</t>
+  </si>
+  <si>
+    <t>Let's talk</t>
+  </si>
+  <si>
+    <t>Nice. Bye</t>
+  </si>
+  <si>
+    <t>Bien. Au revoir</t>
+  </si>
+  <si>
+    <t>[Give %s]</t>
+  </si>
+  <si>
+    <t>[Donner %s]</t>
   </si>
 </sst>
 </file>
@@ -657,10 +708,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -751,74 +802,74 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
         <v>61</v>
-      </c>
-      <c r="B12" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -831,226 +882,298 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B26" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B29" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
         <v>49</v>
-      </c>
-      <c r="B30" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s">
         <v>56</v>
-      </c>
-      <c r="B34" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" t="s">
         <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>58</v>
+      </c>
+      <c r="B36" t="s">
         <v>60</v>
-      </c>
-      <c r="B36" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B38" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B45" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B47" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B48" t="s">
-        <v>87</v>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>89</v>
+      </c>
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>91</v>
+      </c>
+      <c r="B50" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+      <c r="B51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>94</v>
+      </c>
+      <c r="B52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>98</v>
+      </c>
+      <c r="B53" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>100</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AACC2532-D3E8-461C-AD80-37E4AFE605D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
   <si>
     <t>clés</t>
   </si>
@@ -357,6 +357,12 @@
   </si>
   <si>
     <t>[Donner %s]</t>
+  </si>
+  <si>
+    <t>Crafting</t>
+  </si>
+  <si>
+    <t>Artisanat</t>
   </si>
 </sst>
 </file>
@@ -708,7 +714,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B57"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
       <selection activeCell="B58" sqref="B58"/>
@@ -1176,6 +1182,14 @@
         <v>106</v>
       </c>
     </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>107</v>
+      </c>
+      <c r="B58" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\z\Documents\GitHub\iso-maquette\assets\i18n\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571EE694-19E2-4DF7-B71F-6F95B74C902B}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -716,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{571EE694-19E2-4DF7-B71F-6F95B74C902B}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BADD47F1-F866-4ECF-93BB-56EC16C21C97}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
   <si>
     <t>clés</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>Artisanat</t>
+  </si>
+  <si>
+    <t>Nothing happens with '%s'</t>
+  </si>
+  <si>
+    <t>Rien ne se passe avec '%s'</t>
   </si>
 </sst>
 </file>
@@ -415,6 +421,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -714,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B58"/>
+  <dimension ref="A1:B59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59:XFD59"/>
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1190,6 +1200,14 @@
         <v>108</v>
       </c>
     </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>109</v>
+      </c>
+      <c r="B59" t="s">
+        <v>110</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/efe1273c8103e7e0/dev/Iso/Maquette/assets/i18n/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BADD47F1-F866-4ECF-93BB-56EC16C21C97}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{04E58DCF-57E5-4ED9-B029-E9B1B9F9A7FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33D7EEB6-6BAE-42C5-B05D-C80B14D793AD}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B9751365-3DF7-495F-BD4E-13BB2142DF40}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>clés</t>
   </si>
@@ -92,9 +92,6 @@
     <t>Salut !</t>
   </si>
   <si>
-    <t>Transfert</t>
-  </si>
-  <si>
     <t>How many ?</t>
   </si>
   <si>
@@ -369,6 +366,63 @@
   </si>
   <si>
     <t>Rien ne se passe avec '%s'</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Utiliser</t>
+  </si>
+  <si>
+    <t>Craft</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>Make</t>
+  </si>
+  <si>
+    <t>Fabriquer</t>
+  </si>
+  <si>
+    <t>Close</t>
+  </si>
+  <si>
+    <t>Fermer</t>
+  </si>
+  <si>
+    <t>Transfer all</t>
+  </si>
+  <si>
+    <t>Tout transférer</t>
+  </si>
+  <si>
+    <t>Transfer</t>
+  </si>
+  <si>
+    <t>Transférer</t>
+  </si>
+  <si>
+    <t>Menu</t>
+  </si>
+  <si>
+    <t>Smartphone</t>
+  </si>
+  <si>
+    <t>Téléphone</t>
+  </si>
+  <si>
+    <t>Contrôles</t>
+  </si>
+  <si>
+    <t>Controls</t>
+  </si>
+  <si>
+    <t>Quit</t>
+  </si>
+  <si>
+    <t>Quitter</t>
   </si>
 </sst>
 </file>
@@ -724,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
-  <dimension ref="A1:B59"/>
+  <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -818,18 +872,18 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" t="s">
         <v>95</v>
-      </c>
-      <c r="B11" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -837,71 +891,71 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="B20" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -922,50 +976,50 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B25" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B26" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>43</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>44</v>
+        <v>78</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>44</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B29" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,31 +1027,31 @@
         <v>47</v>
       </c>
       <c r="B30" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B33" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1010,34 +1064,34 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>85</v>
       </c>
       <c r="B37" t="s">
-        <v>63</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>87</v>
+        <v>63</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,119 +1099,119 @@
         <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B40" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B42" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B43" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B45" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B49" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B50" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B51" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B52" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B53" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,47 +1219,135 @@
         <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B56" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B59" t="s">
-        <v>110</v>
+        <v>111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>112</v>
+      </c>
+      <c r="B60" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>113</v>
+      </c>
+      <c r="B61" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B63" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>120</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>122</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>123</v>
+      </c>
+      <c r="B68" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>

--- a/assets/i18n/main.xlsx
+++ b/assets/i18n/main.xlsx
@@ -780,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{293BBC0C-BC21-40FC-9811-3583CDB342CC}">
   <dimension ref="A1:B70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
